--- a/branches/dev/CodeSystem-CIEL.xlsx
+++ b/branches/dev/CodeSystem-CIEL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T11:14:20+00:00</t>
+    <t>2023-06-07T12:39:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/dev/CodeSystem-CIEL.xlsx
+++ b/branches/dev/CodeSystem-CIEL.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-07T12:39:14+00:00</t>
+    <t>2023-06-09T18:04:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,7 +120,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>6</t>
+    <t>8</t>
   </si>
   <si>
     <t>Level</t>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>CURRENTLY TAKING ARV</t>
+  </si>
+  <si>
+    <t>86663</t>
+  </si>
+  <si>
+    <t>Zidovudine</t>
+  </si>
+  <si>
+    <t>74807</t>
+  </si>
+  <si>
+    <t>Didanosine</t>
   </si>
 </sst>
 </file>
@@ -293,10 +305,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -492,7 +504,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -584,6 +596,30 @@
       </c>
       <c r="D7" s="2"/>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/branches/dev/CodeSystem-CIEL.xlsx
+++ b/branches/dev/CodeSystem-CIEL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-09T18:04:50+00:00</t>
+    <t>2023-06-22T13:21:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/dev/CodeSystem-CIEL.xlsx
+++ b/branches/dev/CodeSystem-CIEL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T12:14:36+00:00</t>
+    <t>2023-07-02T12:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
